--- a/Tables/Section_IV_BIO/tab_BioComp.xlsx
+++ b/Tables/Section_IV_BIO/tab_BioComp.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\code\NN_molecular_communications\Tables\Section_IV_BIO\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B310B56D-D8E4-4E26-8ACB-91CBEF1E0C85}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6BC4358B-7073-47C1-9CF4-63B333094D53}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-19310" yWindow="1120" windowWidth="19420" windowHeight="10300" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="17520" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Tabelle1" sheetId="1" r:id="rId1"/>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="66" uniqueCount="62">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="66" uniqueCount="61">
   <si>
     <t>Technology</t>
   </si>
@@ -64,9 +64,6 @@
     <t>Reaction-rate tuning; cascading stability</t>
   </si>
   <si>
-    <t>\cite{nagipogu2024neuralcrns,hjelmfelt1991pattern}</t>
-  </si>
-  <si>
     <t>Cellular (in vivo)</t>
   </si>
   <si>
@@ -82,21 +79,12 @@
     <t>\cite{angerbauer2024investigation,rizik2022synthetic}</t>
   </si>
   <si>
-    <t>Chip / Lab-on-a-chip</t>
-  </si>
-  <si>
     <t>10³–10⁴ valves/channels</t>
   </si>
   <si>
-    <t>Low–medium</t>
-  </si>
-  <si>
     <t>Fabrication precision; fluid control; integration</t>
   </si>
   <si>
-    <t>\cite{holt2020protease,mokon2022computational,lau2021efficient}</t>
-  </si>
-  <si>
     <t>Chip-scale hybrid</t>
   </si>
   <si>
@@ -148,18 +136,12 @@
     <t>\ac{CRN}</t>
   </si>
   <si>
-    <t>Microfluidic Circuits</t>
-  </si>
-  <si>
     <t>\ac{GRN}</t>
   </si>
   <si>
     <t>Latency</t>
   </si>
   <si>
-    <t>$\si{\mu\second}-\si{\milli\second}$</t>
-  </si>
-  <si>
     <t>$\si{\min}-\si{\hour}$</t>
   </si>
   <si>
@@ -199,19 +181,34 @@
     <t>TRL \numrange{3}{5}</t>
   </si>
   <si>
-    <t>\numrange{6}{7}</t>
-  </si>
-  <si>
     <t>TRL \numrange{2}{3}</t>
   </si>
   <si>
-    <t>\mycell{Computational\\ Density}</t>
-  </si>
-  <si>
     <t>\rotatebox[origin=c]{90}{\mycell{Digital \\ only}}</t>
   </si>
   <si>
     <t>\cite{kuscu2021fabrication, abdali2024frequencydomain}</t>
+  </si>
+  <si>
+    <t>$\si{\milli\second}$</t>
+  </si>
+  <si>
+    <t>$&lt;1$</t>
+  </si>
+  <si>
+    <t>\mycell{Computational Density \\$[\si{\param\per\cubic\milli\meter}]$}</t>
+  </si>
+  <si>
+    <t>$\SI{91}{\kelvin}$</t>
+  </si>
+  <si>
+    <t>\cite{pandi2019metabolic,cherry2018scaling,agiza2023digital}</t>
+  </si>
+  <si>
+    <t>Compartment-based</t>
+  </si>
+  <si>
+    <t>\cite{angerbauer2024investigation,angerbauer2024novel,angerbauer2023molecular}</t>
   </si>
 </sst>
 </file>
@@ -235,7 +232,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="6">
+  <borders count="7">
     <border>
       <left/>
       <right/>
@@ -292,49 +289,73 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="18">
+  <cellXfs count="19">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -619,8 +640,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:I7"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I2" sqref="I2"/>
+    <sheetView tabSelected="1" topLeftCell="A2" workbookViewId="0">
+      <selection activeCell="D3" sqref="D3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -634,181 +655,181 @@
     <col min="8" max="8" width="13.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" s="1" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="4"/>
-      <c r="B1" s="5" t="s">
+    <row r="1" spans="1:9" s="11" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="10"/>
+      <c r="B1" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="5" t="s">
+      <c r="C1" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="D1" s="3" t="s">
+        <v>56</v>
+      </c>
+      <c r="E1" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="F1" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="G1" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="H1" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="I1" s="3" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" s="11" customFormat="1" ht="120" x14ac:dyDescent="0.25">
+      <c r="A2" s="12" t="s">
+        <v>52</v>
+      </c>
+      <c r="B2" s="6" t="s">
+        <v>33</v>
+      </c>
+      <c r="C2" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="D2" s="12" t="s">
+        <v>57</v>
+      </c>
+      <c r="E2" s="12"/>
+      <c r="F2" s="6" t="s">
+        <v>54</v>
+      </c>
+      <c r="G2" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="H2" s="6" t="s">
+        <v>48</v>
+      </c>
+      <c r="I2" s="6" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" s="11" customFormat="1" ht="75" x14ac:dyDescent="0.25">
+      <c r="A3" s="8" t="s">
+        <v>31</v>
+      </c>
+      <c r="B3" s="5" t="s">
         <v>34</v>
       </c>
-      <c r="D1" s="5" t="s">
+      <c r="C3" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="D3" s="13"/>
+      <c r="E3" s="13"/>
+      <c r="F3" s="5" t="s">
+        <v>38</v>
+      </c>
+      <c r="G3" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="H3" s="5" t="s">
+        <v>49</v>
+      </c>
+      <c r="I3" s="5" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" s="11" customFormat="1" ht="105" x14ac:dyDescent="0.25">
+      <c r="A4" s="8"/>
+      <c r="B4" s="15" t="s">
+        <v>35</v>
+      </c>
+      <c r="C4" s="15" t="s">
+        <v>8</v>
+      </c>
+      <c r="D4" s="16" t="s">
+        <v>55</v>
+      </c>
+      <c r="E4" s="16"/>
+      <c r="F4" s="15" t="s">
+        <v>39</v>
+      </c>
+      <c r="G4" s="15" t="s">
+        <v>10</v>
+      </c>
+      <c r="H4" s="15" t="s">
+        <v>50</v>
+      </c>
+      <c r="I4" s="15" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" s="11" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="17" t="s">
+        <v>32</v>
+      </c>
+      <c r="B5" s="7" t="s">
         <v>59</v>
       </c>
-      <c r="E1" s="5" t="s">
-        <v>1</v>
-      </c>
-      <c r="F1" s="5" t="s">
-        <v>42</v>
-      </c>
-      <c r="G1" s="5" t="s">
-        <v>2</v>
-      </c>
-      <c r="H1" s="5" t="s">
-        <v>47</v>
-      </c>
-      <c r="I1" s="5" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="2" spans="1:9" ht="120" x14ac:dyDescent="0.25">
-      <c r="A2" s="11" t="s">
+      <c r="C5" s="15" t="s">
+        <v>8</v>
+      </c>
+      <c r="D5" s="16" t="s">
+        <v>55</v>
+      </c>
+      <c r="E5" s="14"/>
+      <c r="F5" s="7"/>
+      <c r="G5" s="7"/>
+      <c r="H5" s="7"/>
+      <c r="I5" s="7" t="s">
         <v>60</v>
       </c>
-      <c r="B2" s="10" t="s">
-        <v>37</v>
-      </c>
-      <c r="C2" s="10" t="s">
+    </row>
+    <row r="6" spans="1:9" s="11" customFormat="1" ht="90" x14ac:dyDescent="0.25">
+      <c r="A6" s="18"/>
+      <c r="B6" s="7" t="s">
+        <v>36</v>
+      </c>
+      <c r="C6" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="D6" s="14"/>
+      <c r="E6" s="14"/>
+      <c r="F6" s="7" t="s">
+        <v>38</v>
+      </c>
+      <c r="G6" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="H6" s="7" t="s">
+        <v>51</v>
+      </c>
+      <c r="I6" s="7" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9" s="11" customFormat="1" ht="105.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A7" s="9"/>
+      <c r="B7" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="D2" s="11"/>
-      <c r="E2" s="11"/>
-      <c r="F2" s="10" t="s">
-        <v>43</v>
-      </c>
-      <c r="G2" s="10" t="s">
-        <v>25</v>
-      </c>
-      <c r="H2" s="10" t="s">
-        <v>54</v>
-      </c>
-      <c r="I2" s="10" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="3" spans="1:9" ht="75" x14ac:dyDescent="0.25">
-      <c r="A3" s="14" t="s">
-        <v>35</v>
-      </c>
-      <c r="B3" s="7" t="s">
-        <v>38</v>
-      </c>
-      <c r="C3" s="7" t="s">
-        <v>3</v>
-      </c>
-      <c r="D3" s="9"/>
-      <c r="E3" s="9"/>
-      <c r="F3" s="7" t="s">
-        <v>44</v>
-      </c>
-      <c r="G3" s="7" t="s">
-        <v>5</v>
-      </c>
-      <c r="H3" s="7" t="s">
-        <v>55</v>
-      </c>
-      <c r="I3" s="7" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="4" spans="1:9" ht="105" x14ac:dyDescent="0.25">
-      <c r="A4" s="14"/>
-      <c r="B4" s="12" t="s">
-        <v>39</v>
-      </c>
-      <c r="C4" s="12" t="s">
-        <v>8</v>
-      </c>
-      <c r="D4" s="13"/>
-      <c r="E4" s="13"/>
-      <c r="F4" s="12" t="s">
-        <v>45</v>
-      </c>
-      <c r="G4" s="12" t="s">
-        <v>10</v>
-      </c>
-      <c r="H4" s="12" t="s">
-        <v>56</v>
-      </c>
-      <c r="I4" s="12" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="5" spans="1:9" ht="120" x14ac:dyDescent="0.25">
-      <c r="A5" s="15"/>
-      <c r="B5" s="7" t="s">
+      <c r="C7" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="D7" s="10"/>
+      <c r="E7" s="10"/>
+      <c r="F7" s="2" t="s">
         <v>40</v>
       </c>
-      <c r="C5" s="7" t="s">
-        <v>18</v>
-      </c>
-      <c r="D5" s="9"/>
-      <c r="E5" s="9"/>
-      <c r="F5" s="7" t="s">
-        <v>46</v>
-      </c>
-      <c r="G5" s="7" t="s">
-        <v>20</v>
-      </c>
-      <c r="H5" s="7" t="s">
-        <v>57</v>
-      </c>
-      <c r="I5" s="7" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="6" spans="1:9" ht="90" x14ac:dyDescent="0.25">
-      <c r="A6" s="16" t="s">
-        <v>36</v>
-      </c>
-      <c r="B6" s="12" t="s">
-        <v>41</v>
-      </c>
-      <c r="C6" s="12" t="s">
-        <v>13</v>
-      </c>
-      <c r="D6" s="13"/>
-      <c r="E6" s="13"/>
-      <c r="F6" s="12" t="s">
-        <v>44</v>
-      </c>
-      <c r="G6" s="12" t="s">
-        <v>15</v>
-      </c>
-      <c r="H6" s="12" t="s">
-        <v>58</v>
-      </c>
-      <c r="I6" s="12" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="7" spans="1:9" ht="105.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="17"/>
-      <c r="B7" s="3" t="s">
+      <c r="G7" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="H7" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="I7" s="2" t="s">
         <v>27</v>
-      </c>
-      <c r="C7" s="3" t="s">
-        <v>28</v>
-      </c>
-      <c r="D7" s="8"/>
-      <c r="E7" s="8"/>
-      <c r="F7" s="3" t="s">
-        <v>46</v>
-      </c>
-      <c r="G7" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="H7" s="3" t="s">
-        <v>58</v>
-      </c>
-      <c r="I7" s="3" t="s">
-        <v>31</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="2">
-    <mergeCell ref="A6:A7"/>
-    <mergeCell ref="A3:A5"/>
+    <mergeCell ref="A3:A4"/>
+    <mergeCell ref="A5:A7"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -829,74 +850,74 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:3" ht="60.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="6" t="s">
-        <v>48</v>
-      </c>
-      <c r="B1" s="6" t="s">
-        <v>24</v>
-      </c>
-      <c r="C1" s="5" t="s">
-        <v>32</v>
+      <c r="A1" s="4" t="s">
+        <v>42</v>
+      </c>
+      <c r="B1" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="C1" s="3" t="s">
+        <v>28</v>
       </c>
     </row>
     <row r="2" spans="1:3" ht="75" x14ac:dyDescent="0.25">
-      <c r="A2" s="2" t="s">
-        <v>49</v>
-      </c>
-      <c r="B2" s="2" t="s">
+      <c r="A2" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="B2" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="C2" s="10" t="s">
+      <c r="C2" s="6" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" ht="90" x14ac:dyDescent="0.25">
+      <c r="A3" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="C3" s="5" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" ht="75" x14ac:dyDescent="0.25">
+      <c r="A4" s="5" t="s">
+        <v>45</v>
+      </c>
+      <c r="B4" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="C4" s="7" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" ht="75" x14ac:dyDescent="0.25">
+      <c r="A5" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="C5" s="5" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" ht="75.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A6" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="B6" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="C6" s="7" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" ht="45.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="C7" s="2" t="s">
         <v>26</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3" ht="90" x14ac:dyDescent="0.25">
-      <c r="A3" s="2" t="s">
-        <v>50</v>
-      </c>
-      <c r="B3" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="C3" s="7" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3" ht="75" x14ac:dyDescent="0.25">
-      <c r="A4" s="7" t="s">
-        <v>51</v>
-      </c>
-      <c r="B4" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="C4" s="12" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3" ht="75" x14ac:dyDescent="0.25">
-      <c r="A5" s="2" t="s">
-        <v>52</v>
-      </c>
-      <c r="B5" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="C5" s="7" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3" ht="75.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="3" t="s">
-        <v>53</v>
-      </c>
-      <c r="B6" s="3" t="s">
-        <v>29</v>
-      </c>
-      <c r="C6" s="12" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3" ht="45.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="C7" s="3" t="s">
-        <v>30</v>
       </c>
     </row>
   </sheetData>

--- a/Tables/Section_IV_BIO/tab_BioComp.xlsx
+++ b/Tables/Section_IV_BIO/tab_BioComp.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\code\NN_molecular_communications\Tables\Section_IV_BIO\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6BC4358B-7073-47C1-9CF4-63B333094D53}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CBC0AA5F-3CDC-4233-8687-054EDF12E04F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="17520" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-19310" yWindow="1120" windowWidth="19420" windowHeight="10300" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Tabelle1" sheetId="1" r:id="rId1"/>
@@ -26,35 +26,20 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="66" uniqueCount="61">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="71" uniqueCount="63">
   <si>
     <t>Technology</t>
   </si>
   <si>
-    <t>Scalability (approx.)</t>
-  </si>
-  <si>
     <t>Biocompatibility</t>
   </si>
   <si>
-    <t>Chemical (in-vitro)</t>
-  </si>
-  <si>
     <t>Up to 10³ gates; limited by crosstalk</t>
   </si>
   <si>
-    <t>High (biochemical)</t>
-  </si>
-  <si>
     <t>Slow kinetics; sequence crosstalk; limited reuse</t>
   </si>
   <si>
-    <t>\cite{cherry2018scaling,qian2011neural}</t>
-  </si>
-  <si>
-    <t>Micro / Chemical</t>
-  </si>
-  <si>
     <t>Hundreds of reactions; rate-control limited</t>
   </si>
   <si>
@@ -64,9 +49,6 @@
     <t>Reaction-rate tuning; cascading stability</t>
   </si>
   <si>
-    <t>Cellular (in vivo)</t>
-  </si>
-  <si>
     <t>≈14 cells → 300 params</t>
   </si>
   <si>
@@ -76,18 +58,12 @@
     <t>Slow response; biological variability; noise</t>
   </si>
   <si>
-    <t>\cite{angerbauer2024investigation,rizik2022synthetic}</t>
-  </si>
-  <si>
     <t>10³–10⁴ valves/channels</t>
   </si>
   <si>
     <t>Fabrication precision; fluid control; integration</t>
   </si>
   <si>
-    <t>Chip-scale hybrid</t>
-  </si>
-  <si>
     <t>Moderate; transistor-limited</t>
   </si>
   <si>
@@ -97,21 +73,12 @@
     <t>Stability; bio-interface lifetime</t>
   </si>
   <si>
-    <t>Organoids / Wet Neuromorphic Systems</t>
-  </si>
-  <si>
-    <t>Cellular tissue</t>
-  </si>
-  <si>
     <t>10⁵–10⁶ cells</t>
   </si>
   <si>
     <t>Training, reproducibility, ethics</t>
   </si>
   <si>
-    <t>\cite{quadrato2017organoids,demin2023wetneuromorphic}</t>
-  </si>
-  <si>
     <t>Challenges</t>
   </si>
   <si>
@@ -121,36 +88,15 @@
     <t>Domain</t>
   </si>
   <si>
-    <t>\rotatebox[origin=c]{90}{\mycell{Digital \&amp; Analog}}</t>
-  </si>
-  <si>
-    <t>\rotatebox[origin=c]{90}{\mycell{Analog only}}</t>
-  </si>
-  <si>
     <t>Graphene bio-FET</t>
   </si>
   <si>
-    <t>\ac{DNA} Strand Displacement</t>
-  </si>
-  <si>
     <t>\ac{CRN}</t>
   </si>
   <si>
-    <t>\ac{GRN}</t>
-  </si>
-  <si>
     <t>Latency</t>
   </si>
   <si>
-    <t>$\si{\min}-\si{\hour}$</t>
-  </si>
-  <si>
-    <t>$\si{\second}-\si{\min}$</t>
-  </si>
-  <si>
-    <t>$\si{\milli\second}-\si{\second}$</t>
-  </si>
-  <si>
     <t>\acs{TRL}</t>
   </si>
   <si>
@@ -184,31 +130,91 @@
     <t>TRL \numrange{2}{3}</t>
   </si>
   <si>
-    <t>\rotatebox[origin=c]{90}{\mycell{Digital \\ only}}</t>
-  </si>
-  <si>
     <t>\cite{kuscu2021fabrication, abdali2024frequencydomain}</t>
   </si>
   <si>
-    <t>$\si{\milli\second}$</t>
-  </si>
-  <si>
-    <t>$&lt;1$</t>
-  </si>
-  <si>
-    <t>\mycell{Computational Density \\$[\si{\param\per\cubic\milli\meter}]$}</t>
-  </si>
-  <si>
-    <t>$\SI{91}{\kelvin}$</t>
-  </si>
-  <si>
     <t>\cite{pandi2019metabolic,cherry2018scaling,agiza2023digital}</t>
   </si>
   <si>
     <t>Compartment-based</t>
   </si>
   <si>
-    <t>\cite{angerbauer2024investigation,angerbauer2024novel,angerbauer2023molecular}</t>
+    <t>seconds</t>
+  </si>
+  <si>
+    <t>milli seconds</t>
+  </si>
+  <si>
+    <t>hours</t>
+  </si>
+  <si>
+    <t>\cite{angerbauer2024novel,angerbauer2023molecular}</t>
+  </si>
+  <si>
+    <t>$\sim$ \num{e-1}</t>
+  </si>
+  <si>
+    <t>$\sim$ \num{e-4}</t>
+  </si>
+  <si>
+    <t>minutes</t>
+  </si>
+  <si>
+    <t>$\sim$ \num{e5}</t>
+  </si>
+  <si>
+    <t>Cellular</t>
+  </si>
+  <si>
+    <t>\cite{qian2011neural}</t>
+  </si>
+  <si>
+    <t>DNA Strand Displacement</t>
+  </si>
+  <si>
+    <t>Bacteria Colony</t>
+  </si>
+  <si>
+    <t>$\sim$ \num{e-6}</t>
+  </si>
+  <si>
+    <t>\cite{sarkar2021single,li2021synthetic}</t>
+  </si>
+  <si>
+    <t>\mycell{Digital \\ only}</t>
+  </si>
+  <si>
+    <t>\mycell{Digital \\ \&amp; Analog}</t>
+  </si>
+  <si>
+    <t>\mycell{Analog only}</t>
+  </si>
+  <si>
+    <t>High</t>
+  </si>
+  <si>
+    <t>Low-Medium</t>
+  </si>
+  <si>
+    <t>Chemical</t>
+  </si>
+  <si>
+    <t>\mycell{Wet\\ Neuromorphic\\ Systems}</t>
+  </si>
+  <si>
+    <t>\mycell{Weight Density \\$[\si{\w\per\cubic\milli\meter\per\second}]$}</t>
+  </si>
+  <si>
+    <t>\mycell{Scalability\\ (approx.)}</t>
+  </si>
+  <si>
+    <t>Medium-High</t>
+  </si>
+  <si>
+    <t>TRL \numrange{4}{5}</t>
+  </si>
+  <si>
+    <t>Silico</t>
   </si>
 </sst>
 </file>
@@ -232,7 +238,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="7">
+  <borders count="8">
     <border>
       <left/>
       <right/>
@@ -298,11 +304,22 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="19">
+  <cellXfs count="23">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
@@ -325,38 +342,50 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment vertical="center"/>
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -638,198 +667,208 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:I7"/>
+  <dimension ref="A1:J6"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A2" workbookViewId="0">
-      <selection activeCell="D3" sqref="D3"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D2" sqref="D2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="13" customWidth="1"/>
-    <col min="3" max="3" width="15.5703125" customWidth="1"/>
-    <col min="4" max="4" width="15.28515625" customWidth="1"/>
-    <col min="5" max="5" width="14" customWidth="1"/>
-    <col min="6" max="6" width="13.42578125" customWidth="1"/>
-    <col min="7" max="7" width="16.140625" customWidth="1"/>
-    <col min="8" max="8" width="13.5703125" customWidth="1"/>
+    <col min="2" max="2" width="13.85546875" customWidth="1"/>
+    <col min="3" max="3" width="9.85546875" customWidth="1"/>
+    <col min="4" max="4" width="10.5703125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="15.28515625" customWidth="1"/>
+    <col min="6" max="6" width="14" customWidth="1"/>
+    <col min="7" max="7" width="8" customWidth="1"/>
+    <col min="8" max="8" width="15.140625" customWidth="1"/>
+    <col min="9" max="9" width="11.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" s="11" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="10"/>
-      <c r="B1" s="3" t="s">
+    <row r="1" spans="1:10" s="9" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="8"/>
+      <c r="B1" s="17" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="3" t="s">
+      <c r="C1" s="17"/>
+      <c r="D1" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="E1" s="3" t="s">
+        <v>58</v>
+      </c>
+      <c r="F1" s="3" t="s">
+        <v>59</v>
+      </c>
+      <c r="G1" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="H1" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="I1" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="J1" s="3" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10" s="9" customFormat="1" ht="120" x14ac:dyDescent="0.25">
+      <c r="A2" s="10" t="s">
+        <v>51</v>
+      </c>
+      <c r="B2" s="18" t="s">
+        <v>20</v>
+      </c>
+      <c r="C2" s="18"/>
+      <c r="D2" s="6" t="s">
+        <v>62</v>
+      </c>
+      <c r="E2" s="10" t="s">
+        <v>44</v>
+      </c>
+      <c r="F2" s="10" t="s">
+        <v>54</v>
+      </c>
+      <c r="G2" s="6" t="s">
+        <v>38</v>
+      </c>
+      <c r="H2" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="I2" s="6" t="s">
         <v>30</v>
       </c>
-      <c r="D1" s="3" t="s">
+      <c r="J2" s="6" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10" s="9" customFormat="1" ht="105" x14ac:dyDescent="0.25">
+      <c r="A3" s="16" t="s">
+        <v>52</v>
+      </c>
+      <c r="B3" s="19" t="s">
+        <v>21</v>
+      </c>
+      <c r="C3" s="19"/>
+      <c r="D3" s="12" t="s">
         <v>56</v>
       </c>
-      <c r="E1" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="F1" s="3" t="s">
+      <c r="E3" s="13" t="s">
+        <v>42</v>
+      </c>
+      <c r="F3" s="13" t="s">
+        <v>55</v>
+      </c>
+      <c r="G3" s="12" t="s">
+        <v>43</v>
+      </c>
+      <c r="H3" s="12" t="s">
+        <v>5</v>
+      </c>
+      <c r="I3" s="12" t="s">
+        <v>32</v>
+      </c>
+      <c r="J3" s="12" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10" s="9" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="14" t="s">
+        <v>53</v>
+      </c>
+      <c r="B4" s="19" t="s">
+        <v>36</v>
+      </c>
+      <c r="C4" s="19"/>
+      <c r="D4" s="12" t="s">
+        <v>56</v>
+      </c>
+      <c r="E4" s="13" t="s">
+        <v>41</v>
+      </c>
+      <c r="F4" s="11" t="s">
+        <v>60</v>
+      </c>
+      <c r="G4" s="12" t="s">
         <v>37</v>
       </c>
-      <c r="G1" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="H1" s="3" t="s">
-        <v>41</v>
-      </c>
-      <c r="I1" s="3" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="2" spans="1:9" s="11" customFormat="1" ht="120" x14ac:dyDescent="0.25">
-      <c r="A2" s="12" t="s">
-        <v>52</v>
-      </c>
-      <c r="B2" s="6" t="s">
+      <c r="H4" s="7" t="s">
+        <v>5</v>
+      </c>
+      <c r="I4" s="12" t="s">
+        <v>61</v>
+      </c>
+      <c r="J4" s="7" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10" s="9" customFormat="1" ht="45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="20"/>
+      <c r="B5" s="14" t="s">
+        <v>57</v>
+      </c>
+      <c r="C5" s="7" t="s">
+        <v>47</v>
+      </c>
+      <c r="D5" s="7" t="s">
+        <v>56</v>
+      </c>
+      <c r="E5" s="11" t="s">
+        <v>42</v>
+      </c>
+      <c r="F5" s="11" t="s">
+        <v>13</v>
+      </c>
+      <c r="G5" s="7" t="s">
+        <v>39</v>
+      </c>
+      <c r="H5" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="I5" s="7" t="s">
+        <v>31</v>
+      </c>
+      <c r="J5" s="7" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10" s="9" customFormat="1" ht="45" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A6" s="15"/>
+      <c r="B6" s="15"/>
+      <c r="C6" s="22" t="s">
+        <v>48</v>
+      </c>
+      <c r="D6" s="22" t="s">
+        <v>45</v>
+      </c>
+      <c r="E6" s="21" t="s">
+        <v>49</v>
+      </c>
+      <c r="F6" s="21" t="s">
+        <v>13</v>
+      </c>
+      <c r="G6" s="22" t="s">
+        <v>39</v>
+      </c>
+      <c r="H6" s="22" t="s">
+        <v>8</v>
+      </c>
+      <c r="I6" s="22" t="s">
         <v>33</v>
       </c>
-      <c r="C2" s="6" t="s">
-        <v>19</v>
-      </c>
-      <c r="D2" s="12" t="s">
-        <v>57</v>
-      </c>
-      <c r="E2" s="12"/>
-      <c r="F2" s="6" t="s">
-        <v>54</v>
-      </c>
-      <c r="G2" s="6" t="s">
-        <v>21</v>
-      </c>
-      <c r="H2" s="6" t="s">
-        <v>48</v>
-      </c>
-      <c r="I2" s="6" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="3" spans="1:9" s="11" customFormat="1" ht="75" x14ac:dyDescent="0.25">
-      <c r="A3" s="8" t="s">
-        <v>31</v>
-      </c>
-      <c r="B3" s="5" t="s">
-        <v>34</v>
-      </c>
-      <c r="C3" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="D3" s="13"/>
-      <c r="E3" s="13"/>
-      <c r="F3" s="5" t="s">
-        <v>38</v>
-      </c>
-      <c r="G3" s="5" t="s">
-        <v>5</v>
-      </c>
-      <c r="H3" s="5" t="s">
-        <v>49</v>
-      </c>
-      <c r="I3" s="5" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="4" spans="1:9" s="11" customFormat="1" ht="105" x14ac:dyDescent="0.25">
-      <c r="A4" s="8"/>
-      <c r="B4" s="15" t="s">
-        <v>35</v>
-      </c>
-      <c r="C4" s="15" t="s">
-        <v>8</v>
-      </c>
-      <c r="D4" s="16" t="s">
-        <v>55</v>
-      </c>
-      <c r="E4" s="16"/>
-      <c r="F4" s="15" t="s">
-        <v>39</v>
-      </c>
-      <c r="G4" s="15" t="s">
-        <v>10</v>
-      </c>
-      <c r="H4" s="15" t="s">
+      <c r="J6" s="22" t="s">
         <v>50</v>
       </c>
-      <c r="I4" s="15" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="5" spans="1:9" s="11" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="17" t="s">
-        <v>32</v>
-      </c>
-      <c r="B5" s="7" t="s">
-        <v>59</v>
-      </c>
-      <c r="C5" s="15" t="s">
-        <v>8</v>
-      </c>
-      <c r="D5" s="16" t="s">
-        <v>55</v>
-      </c>
-      <c r="E5" s="14"/>
-      <c r="F5" s="7"/>
-      <c r="G5" s="7"/>
-      <c r="H5" s="7"/>
-      <c r="I5" s="7" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="6" spans="1:9" s="11" customFormat="1" ht="90" x14ac:dyDescent="0.25">
-      <c r="A6" s="18"/>
-      <c r="B6" s="7" t="s">
-        <v>36</v>
-      </c>
-      <c r="C6" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="D6" s="14"/>
-      <c r="E6" s="14"/>
-      <c r="F6" s="7" t="s">
-        <v>38</v>
-      </c>
-      <c r="G6" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="H6" s="7" t="s">
-        <v>51</v>
-      </c>
-      <c r="I6" s="7" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="7" spans="1:9" s="11" customFormat="1" ht="105.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="9"/>
-      <c r="B7" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="C7" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="D7" s="10"/>
-      <c r="E7" s="10"/>
-      <c r="F7" s="2" t="s">
-        <v>40</v>
-      </c>
-      <c r="G7" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="H7" s="2" t="s">
-        <v>51</v>
-      </c>
-      <c r="I7" s="2" t="s">
-        <v>27</v>
-      </c>
     </row>
   </sheetData>
-  <mergeCells count="2">
-    <mergeCell ref="A3:A4"/>
-    <mergeCell ref="A5:A7"/>
+  <mergeCells count="6">
+    <mergeCell ref="A4:A6"/>
+    <mergeCell ref="B1:C1"/>
+    <mergeCell ref="B2:C2"/>
+    <mergeCell ref="B3:C3"/>
+    <mergeCell ref="B4:C4"/>
+    <mergeCell ref="B5:B6"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -851,73 +890,73 @@
   <sheetData>
     <row r="1" spans="1:3" ht="60.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" s="4" t="s">
-        <v>42</v>
+        <v>24</v>
       </c>
       <c r="B1" s="4" t="s">
-        <v>20</v>
+        <v>12</v>
       </c>
       <c r="C1" s="3" t="s">
-        <v>28</v>
+        <v>17</v>
       </c>
     </row>
     <row r="2" spans="1:3" ht="75" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
-        <v>43</v>
+        <v>25</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="C2" s="6" t="s">
-        <v>22</v>
+        <v>14</v>
       </c>
     </row>
     <row r="3" spans="1:3" ht="90" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
-        <v>44</v>
+        <v>26</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="C3" s="5" t="s">
-        <v>6</v>
+        <v>3</v>
       </c>
     </row>
     <row r="4" spans="1:3" ht="75" x14ac:dyDescent="0.25">
       <c r="A4" s="5" t="s">
-        <v>45</v>
+        <v>27</v>
       </c>
       <c r="B4" s="5" t="s">
-        <v>17</v>
+        <v>10</v>
       </c>
       <c r="C4" s="7" t="s">
-        <v>11</v>
+        <v>6</v>
       </c>
     </row>
     <row r="5" spans="1:3" ht="75" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
-        <v>46</v>
+        <v>28</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>13</v>
+        <v>7</v>
       </c>
       <c r="C5" s="5" t="s">
-        <v>18</v>
+        <v>11</v>
       </c>
     </row>
     <row r="6" spans="1:3" ht="75.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A6" s="2" t="s">
-        <v>47</v>
+        <v>29</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>25</v>
+        <v>15</v>
       </c>
       <c r="C6" s="7" t="s">
-        <v>15</v>
+        <v>9</v>
       </c>
     </row>
     <row r="7" spans="1:3" ht="45.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="C7" s="2" t="s">
-        <v>26</v>
+        <v>16</v>
       </c>
     </row>
   </sheetData>

--- a/Tables/Section_IV_BIO/tab_BioComp.xlsx
+++ b/Tables/Section_IV_BIO/tab_BioComp.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\code\NN_molecular_communications\Tables\Section_IV_BIO\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CBC0AA5F-3CDC-4233-8687-054EDF12E04F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B5052B85-6377-433D-869D-83DF53BC375D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-19310" yWindow="1120" windowWidth="19420" windowHeight="10300" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Tabelle1" sheetId="1" r:id="rId1"/>
@@ -360,15 +360,24 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -377,15 +386,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -670,27 +670,27 @@
   <dimension ref="A1:J6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D2" sqref="D2"/>
+      <selection activeCell="F1" sqref="F1:F1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="2" max="2" width="13.85546875" customWidth="1"/>
-    <col min="3" max="3" width="9.85546875" customWidth="1"/>
-    <col min="4" max="4" width="10.5703125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="15.28515625" customWidth="1"/>
-    <col min="6" max="6" width="14" customWidth="1"/>
-    <col min="7" max="7" width="8" customWidth="1"/>
-    <col min="8" max="8" width="15.140625" customWidth="1"/>
-    <col min="9" max="9" width="11.140625" customWidth="1"/>
+    <col min="2" max="2" width="13.81640625" customWidth="1"/>
+    <col min="3" max="3" width="9.81640625" customWidth="1"/>
+    <col min="4" max="4" width="10.54296875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="15.26953125" customWidth="1"/>
+    <col min="6" max="6" width="8" customWidth="1"/>
+    <col min="7" max="7" width="14" customWidth="1"/>
+    <col min="8" max="8" width="15.1796875" customWidth="1"/>
+    <col min="9" max="9" width="11.1796875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" s="9" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:10" s="9" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A1" s="8"/>
-      <c r="B1" s="17" t="s">
+      <c r="B1" s="20" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="17"/>
+      <c r="C1" s="20"/>
       <c r="D1" s="3" t="s">
         <v>19</v>
       </c>
@@ -698,10 +698,10 @@
         <v>58</v>
       </c>
       <c r="F1" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="G1" s="3" t="s">
         <v>59</v>
-      </c>
-      <c r="G1" s="3" t="s">
-        <v>22</v>
       </c>
       <c r="H1" s="3" t="s">
         <v>1</v>
@@ -713,25 +713,25 @@
         <v>18</v>
       </c>
     </row>
-    <row r="2" spans="1:10" s="9" customFormat="1" ht="120" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:10" s="9" customFormat="1" ht="101.5" x14ac:dyDescent="0.35">
       <c r="A2" s="10" t="s">
         <v>51</v>
       </c>
-      <c r="B2" s="18" t="s">
+      <c r="B2" s="21" t="s">
         <v>20</v>
       </c>
-      <c r="C2" s="18"/>
+      <c r="C2" s="21"/>
       <c r="D2" s="6" t="s">
         <v>62</v>
       </c>
       <c r="E2" s="10" t="s">
         <v>44</v>
       </c>
-      <c r="F2" s="10" t="s">
+      <c r="F2" s="6" t="s">
+        <v>38</v>
+      </c>
+      <c r="G2" s="10" t="s">
         <v>54</v>
-      </c>
-      <c r="G2" s="6" t="s">
-        <v>38</v>
       </c>
       <c r="H2" s="6" t="s">
         <v>13</v>
@@ -743,25 +743,25 @@
         <v>34</v>
       </c>
     </row>
-    <row r="3" spans="1:10" s="9" customFormat="1" ht="105" x14ac:dyDescent="0.25">
-      <c r="A3" s="16" t="s">
+    <row r="3" spans="1:10" s="9" customFormat="1" ht="101.5" x14ac:dyDescent="0.35">
+      <c r="A3" s="14" t="s">
         <v>52</v>
       </c>
-      <c r="B3" s="19" t="s">
+      <c r="B3" s="22" t="s">
         <v>21</v>
       </c>
-      <c r="C3" s="19"/>
+      <c r="C3" s="22"/>
       <c r="D3" s="12" t="s">
         <v>56</v>
       </c>
       <c r="E3" s="13" t="s">
         <v>42</v>
       </c>
-      <c r="F3" s="13" t="s">
+      <c r="F3" s="12" t="s">
+        <v>43</v>
+      </c>
+      <c r="G3" s="13" t="s">
         <v>55</v>
-      </c>
-      <c r="G3" s="12" t="s">
-        <v>43</v>
       </c>
       <c r="H3" s="12" t="s">
         <v>5</v>
@@ -773,25 +773,25 @@
         <v>35</v>
       </c>
     </row>
-    <row r="4" spans="1:10" s="9" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="14" t="s">
+    <row r="4" spans="1:10" s="9" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A4" s="17" t="s">
         <v>53</v>
       </c>
-      <c r="B4" s="19" t="s">
+      <c r="B4" s="22" t="s">
         <v>36</v>
       </c>
-      <c r="C4" s="19"/>
+      <c r="C4" s="22"/>
       <c r="D4" s="12" t="s">
         <v>56</v>
       </c>
       <c r="E4" s="13" t="s">
         <v>41</v>
       </c>
-      <c r="F4" s="11" t="s">
+      <c r="F4" s="12" t="s">
+        <v>37</v>
+      </c>
+      <c r="G4" s="11" t="s">
         <v>60</v>
-      </c>
-      <c r="G4" s="12" t="s">
-        <v>37</v>
       </c>
       <c r="H4" s="7" t="s">
         <v>5</v>
@@ -803,9 +803,9 @@
         <v>40</v>
       </c>
     </row>
-    <row r="5" spans="1:10" s="9" customFormat="1" ht="45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="20"/>
-      <c r="B5" s="14" t="s">
+    <row r="5" spans="1:10" s="9" customFormat="1" ht="45" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A5" s="18"/>
+      <c r="B5" s="17" t="s">
         <v>57</v>
       </c>
       <c r="C5" s="7" t="s">
@@ -817,11 +817,11 @@
       <c r="E5" s="11" t="s">
         <v>42</v>
       </c>
-      <c r="F5" s="11" t="s">
+      <c r="F5" s="7" t="s">
+        <v>39</v>
+      </c>
+      <c r="G5" s="11" t="s">
         <v>13</v>
-      </c>
-      <c r="G5" s="7" t="s">
-        <v>39</v>
       </c>
       <c r="H5" s="7" t="s">
         <v>8</v>
@@ -833,31 +833,31 @@
         <v>46</v>
       </c>
     </row>
-    <row r="6" spans="1:10" s="9" customFormat="1" ht="45" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="15"/>
-      <c r="B6" s="15"/>
-      <c r="C6" s="22" t="s">
+    <row r="6" spans="1:10" s="9" customFormat="1" ht="45" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A6" s="19"/>
+      <c r="B6" s="19"/>
+      <c r="C6" s="16" t="s">
         <v>48</v>
       </c>
-      <c r="D6" s="22" t="s">
+      <c r="D6" s="16" t="s">
         <v>45</v>
       </c>
-      <c r="E6" s="21" t="s">
+      <c r="E6" s="15" t="s">
         <v>49</v>
       </c>
-      <c r="F6" s="21" t="s">
+      <c r="F6" s="16" t="s">
+        <v>39</v>
+      </c>
+      <c r="G6" s="15" t="s">
         <v>13</v>
       </c>
-      <c r="G6" s="22" t="s">
-        <v>39</v>
-      </c>
-      <c r="H6" s="22" t="s">
+      <c r="H6" s="16" t="s">
         <v>8</v>
       </c>
-      <c r="I6" s="22" t="s">
+      <c r="I6" s="16" t="s">
         <v>33</v>
       </c>
-      <c r="J6" s="22" t="s">
+      <c r="J6" s="16" t="s">
         <v>50</v>
       </c>
     </row>
@@ -883,12 +883,12 @@
       <selection activeCell="C1" sqref="C1:C1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="3" max="3" width="11" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" ht="60.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:3" ht="58.5" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A1" s="4" t="s">
         <v>24</v>
       </c>
@@ -899,7 +899,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="2" spans="1:3" ht="75" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:3" ht="72.5" x14ac:dyDescent="0.35">
       <c r="A2" s="1" t="s">
         <v>25</v>
       </c>
@@ -910,7 +910,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="3" spans="1:3" ht="90" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:3" ht="87" x14ac:dyDescent="0.35">
       <c r="A3" s="1" t="s">
         <v>26</v>
       </c>
@@ -921,7 +921,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="4" spans="1:3" ht="75" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:3" ht="58" x14ac:dyDescent="0.35">
       <c r="A4" s="5" t="s">
         <v>27</v>
       </c>
@@ -932,7 +932,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="5" spans="1:3" ht="75" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:3" ht="72.5" x14ac:dyDescent="0.35">
       <c r="A5" s="1" t="s">
         <v>28</v>
       </c>
@@ -943,7 +943,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="6" spans="1:3" ht="75.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:3" ht="73" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A6" s="2" t="s">
         <v>29</v>
       </c>
@@ -954,7 +954,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="7" spans="1:3" ht="45.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:3" ht="44" thickBot="1" x14ac:dyDescent="0.4">
       <c r="C7" s="2" t="s">
         <v>16</v>
       </c>
